--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DDB207-F3DD-4609-A3E1-4AF70DE1003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0A064-8642-4F0E-B721-E6DE3C612ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2655" windowWidth="23400" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12945" yWindow="2700" windowWidth="22155" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>key</t>
   </si>
@@ -788,6 +788,41 @@
   <si>
     <t>1, 0.3, 0.3, 1.5, 2.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이미지 링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_007_bloodofthemartyr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_006_numberone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_005_myreflection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_008_brotherbobby</t>
+  </si>
+  <si>
+    <t>collectibles_010_haloofflies</t>
+  </si>
+  <si>
+    <t>collectibles_012_magicmushroom</t>
+  </si>
+  <si>
+    <t>collectibles_013_thevirus</t>
+  </si>
+  <si>
+    <t>collectibles_009_skatole</t>
   </si>
 </sst>
 </file>
@@ -909,8 +944,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472888</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>540123</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>147917</xdr:rowOff>
     </xdr:to>
@@ -1215,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1228,9 +1263,11 @@
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,8 +1292,11 @@
       <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1281,8 +1321,11 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1350,11 @@
       <c r="H3" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -1333,8 +1379,11 @@
       <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1359,8 +1408,11 @@
       <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1385,8 +1437,11 @@
       <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1411,8 +1466,11 @@
       <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1437,8 +1495,11 @@
       <c r="H8" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1463,8 +1524,11 @@
       <c r="H9" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1489,8 +1553,11 @@
       <c r="H10" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1514,6 +1581,9 @@
       </c>
       <c r="H11" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0A064-8642-4F0E-B721-E6DE3C612ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA60A35D-52E0-4C38-8826-021B35C310FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="2700" windowWidth="22155" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29925" yWindow="1935" windowWidth="21210" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>key</t>
   </si>
@@ -82,9 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Legendary</t>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -121,10 +118,6 @@
   </si>
   <si>
     <t>Number One</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legendary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -651,10 +644,6 @@
     <t>공격력 증가</t>
   </si>
   <si>
-    <t>Rare</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>눈물 색깔을 빨간색으로 바꾼다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -689,10 +678,6 @@
     <t>캐릭터의 크기가 한 단계 커진다. 캐릭터의 크기가 커져도 피격 판정은 커지지 않는다.</t>
   </si>
   <si>
-    <t>Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The Virus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -823,13 +808,560 @@
   </si>
   <si>
     <t>collectibles_009_skatole</t>
+  </si>
+  <si>
+    <t>Pentagram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 10, 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 10, 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 방/천사 방의 출현 확률을 10% 증가시킨다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakFast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThePact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, 1, 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 0.5, 0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공격력과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>보유한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>코인당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$$$ = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 0.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>투사체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소울하트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CricketsHead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatONineTails</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyIsPower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5, 1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BucketOfLard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9, 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이동속도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_025_breakfast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_129_bucketoflard</t>
+  </si>
+  <si>
+    <t>collectibles_051_pentagram</t>
+  </si>
+  <si>
+    <t>collectibles_080_thepact</t>
+  </si>
+  <si>
+    <t>collectibles_428_pjs</t>
+  </si>
+  <si>
+    <t>collectibles_109_moneyispower</t>
+  </si>
+  <si>
+    <t>collectibles_165_catoninetails</t>
+  </si>
+  <si>
+    <t>collectibles_004_cricketshead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,6 +1412,26 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -901,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,14 +1461,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -940,14 +1505,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>540123</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>147917</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>159123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1250,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1281,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1310,19 +1875,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1339,254 +1904,500 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
+      <c r="A4" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>60</v>
+      <c r="H4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="3">
+        <v>1025</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3">
+        <v>1129</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1013</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1428</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1051</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1080</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1109</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1165</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>1004</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1012</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
+      <c r="I19" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I19">
+    <sortCondition ref="C4:C19"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA60A35D-52E0-4C38-8826-021B35C310FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73272FCC-C820-4577-9656-22E24C7EE1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1935" windowWidth="21210" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="2295" windowWidth="26400" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>My Reflection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;float&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -115,10 +111,6 @@
   </si>
   <si>
     <t>눈물이 부메랑처럼 되돌아온다.</t>
-  </si>
-  <si>
-    <t>Number One</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3,4,5</t>
@@ -630,10 +622,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Blood of the Martyr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Massage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -648,20 +636,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Brother Boddy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>영원한 친구</t>
   </si>
   <si>
     <t>캐릭터를 따라다니면서 캐릭터가 공격할 때 공격력 3.5의 눈물을 같이 초당 2번 발사하는 패밀리어가 생긴다.</t>
   </si>
   <si>
-    <t>Halo of Files</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>검은 파리 두 마리가 캐릭터 주위를 맴돌며 적들의 발사체를 막아준다.</t>
   </si>
   <si>
@@ -671,17 +651,9 @@
     <t>모든 능력치 증가!</t>
   </si>
   <si>
-    <t>Magic Mushroom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터의 크기가 한 단계 커진다. 캐릭터의 크기가 커져도 피격 판정은 커지지 않는다.</t>
   </si>
   <si>
-    <t>The Virus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>독성 + 이동 속도 증가</t>
   </si>
   <si>
@@ -749,10 +721,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Skatole</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>똥을 머리에 쓴다. 아이템 획득 이후 적으로 나오는 파리들이 대부분 중립 또는 친화적으로 변한다.</t>
   </si>
   <si>
@@ -810,10 +778,6 @@
     <t>collectibles_009_skatole</t>
   </si>
   <si>
-    <t>Pentagram</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -861,10 +825,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BreakFast</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -903,10 +863,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ThePact</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12, 1, 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1136,10 +1092,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PJs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1210,18 +1162,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CricketsHead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CatONineTails</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoneyIsPower</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1268,10 +1208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BucketOfLard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9, 8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1355,6 +1291,70 @@
   </si>
   <si>
     <t>collectibles_004_cricketshead</t>
+  </si>
+  <si>
+    <t>스카톨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리켓의 머리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거울상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오줌싸개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순교자의 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보비 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파리 떼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요술 버섯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오망성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈의힘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지기름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아홉 가닥 채찍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1505,13 +1505,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>540123</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>159123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1846,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -1907,190 +1907,190 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="6">
+        <v>72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>47</v>
+      <c r="G4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="6">
+        <v>70</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1025</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="6">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>97</v>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1129</v>
+        <v>1007</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>95</v>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -2098,10 +2098,10 @@
         <v>1010</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -2113,85 +2113,85 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.2</v>
+        <v>72</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>1428</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>83</v>
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -2199,14 +2199,14 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>28</v>
+      <c r="G13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2214,28 +2214,28 @@
         <v>1051</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2243,28 +2243,28 @@
         <v>1080</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2272,10 +2272,10 @@
         <v>1109</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -2287,100 +2287,100 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>1165</v>
+        <v>1129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>1004</v>
+        <v>1165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>90</v>
+      <c r="G18" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1428</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>1012</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="6">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6">
         <v>4</v>
       </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2396,7 +2396,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I19">
-    <sortCondition ref="C4:C19"/>
+    <sortCondition ref="A4:A19"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0524704-ADD2-4978-A11B-3A1A4BBC975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BCDC7-2DF0-4A5A-A102-A5C4AA053F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="2070" windowWidth="23595" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37800" yWindow="1395" windowWidth="13710" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2677,7 +2677,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3605,7 +3605,7 @@
         <v>131</v>
       </c>
       <c r="F29" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudo\Documents\GitHub\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BCDC7-2DF0-4A5A-A102-A5C4AA053F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D377DF6-250B-47BF-B789-F92A3219E720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37800" yWindow="1395" windowWidth="13710" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="4215" windowWidth="24135" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="167">
   <si>
     <t>key</t>
   </si>
@@ -1955,257 +1953,342 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>collectibles_036_thepoop</t>
+  </si>
+  <si>
+    <t>collectibles_114_momsknife</t>
+  </si>
+  <si>
+    <t>collectibles_153_mutantspider</t>
+  </si>
+  <si>
+    <t>collectibles_330_soymilk</t>
+  </si>
+  <si>
+    <t>collectibles_149_ipecac</t>
+  </si>
+  <si>
+    <t>collectibles_224_cricketsbody</t>
+  </si>
+  <si>
+    <t>collectibles_265_drybaby</t>
+  </si>
+  <si>
+    <t>collectibles_167_harlequinbaby</t>
+  </si>
+  <si>
+    <t>collectibles_275_lilbrimstone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_360_incubus</t>
+  </si>
+  <si>
+    <t>collectibles_390_seraphim</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접촉한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>틱당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접촉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피해와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중독</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태이상을 건다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초코우유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블샷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물을 2개 발사한다. 추가로 먹을시 눈물을 1개 추가한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>굉장해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>엄청나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 방식을 차징 방식으로 바꾼다. 눈물 크기 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>삐뿌엔삐뿌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>collectibles_105_dice_0</t>
-  </si>
-  <si>
-    <t>collectibles_036_thepoop</t>
-  </si>
-  <si>
-    <t>collectibles_114_momsknife</t>
-  </si>
-  <si>
-    <t>collectibles_153_mutantspider</t>
-  </si>
-  <si>
-    <t>collectibles_330_soymilk</t>
-  </si>
-  <si>
-    <t>collectibles_149_ipecac</t>
-  </si>
-  <si>
-    <t>collectibles_224_cricketsbody</t>
-  </si>
-  <si>
-    <t>collectibles_265_drybaby</t>
-  </si>
-  <si>
-    <t>collectibles_167_harlequinbaby</t>
-  </si>
-  <si>
-    <t>collectibles_275_lilbrimstone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectibles_360_incubus</t>
-  </si>
-  <si>
-    <t>collectibles_390_seraphim</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>접촉한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>틱당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 24, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>접촉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피해와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>함께</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중독</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상태이상을 건다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10, 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_069_chocolatemilk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectibles_245_2020</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2674,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2849,7 +2932,7 @@
         <v>144</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2927,7 +3010,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>71</v>
@@ -2977,7 +3060,7 @@
         <v>110</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3099,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>29</v>
@@ -3169,7 +3252,7 @@
         <v>108</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3201,7 +3284,7 @@
         <v>128</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3393,7 +3476,7 @@
         <v>104</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3425,7 +3508,7 @@
         <v>115</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3457,7 +3540,7 @@
         <v>119</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3489,7 +3572,7 @@
         <v>123</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3585,7 +3668,7 @@
         <v>112</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3617,7 +3700,7 @@
         <v>132</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3649,7 +3732,7 @@
         <v>135</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -3681,7 +3764,71 @@
         <v>140</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>3001</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>19</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>3002</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3690,6 +3837,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>